--- a/PC講座のスケジュール.xlsx
+++ b/PC講座のスケジュール.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仲間大地\Documents\パソコン講座\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仲間大地\Documents\パソコン講座\パソコン講座録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403B17B9-8C46-43BE-B83B-3043435902EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB97D1D7-3AF3-47D6-83ED-8B13B9979A56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5894D4D7-0C06-4956-9636-6D404EFEECBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5894D4D7-0C06-4956-9636-6D404EFEECBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="簡易フロー" sheetId="1" r:id="rId1"/>
+    <sheet name="デモ1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>HTML/CSSまで理解</t>
     <rPh sb="10" eb="12">
@@ -207,6 +208,150 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ネヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずはこんな感じの表を作ってもらう</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高さ、幅の変え方を教える。最初はドラックで調整する方法だけがわかりやすいかも。後々複数いっぺんに調整するならこっちが楽だと言って数値で変更する方法を教える</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ラク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは好きな文字と色で</t>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは大きさ傾き下線</t>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは中央揃え</t>
+    <rPh sb="3" eb="6">
+      <t>チュウオウゾロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→数字入れてみる</t>
+    <rPh sb="1" eb="3">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合させてみる（多様は厳禁）</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご自由に</t>
+    <rPh sb="1" eb="3">
+      <t>ジユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ文字を入力</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,16 +392,53 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,13 +461,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +617,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCA7B5D-2860-4996-8987-35C92598122C}">
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -736,4 +1080,89 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F41605F-2433-471D-858F-B79CC2E720EE}">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="17"/>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:I5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>